--- a/assets/valuation_engine/Valuation_Engine_Mapping.xlsx
+++ b/assets/valuation_engine/Valuation_Engine_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\dashboard_finance_metrics\asset\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\dashboard_finance_metrics\assets\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B608A56-CD57-43E4-9142-B0FDBBB4EE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE762816-0BD1-4833-8DBA-7D14C8967F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" firstSheet="1" activeTab="5" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Names" sheetId="5" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="506">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -726,24 +726,9 @@
     <t>Efficiency Ratio - Days of Sales Outstanding</t>
   </si>
   <si>
-    <t>Efficiency Ratio - Days of Payable</t>
-  </si>
-  <si>
     <t>Efficiency Ratio - Cash conversion cycle</t>
   </si>
   <si>
-    <t>Efficiency Ratio - Working Capital Turnover</t>
-  </si>
-  <si>
-    <t>Efficiency Ratio - Total Asset Turnover</t>
-  </si>
-  <si>
-    <t>Liquidity Ratio - Quick Ratio</t>
-  </si>
-  <si>
-    <t>Liquidity Ratio - Cash Ratio</t>
-  </si>
-  <si>
     <t>Solvency Ratio - Debt to Asset</t>
   </si>
   <si>
@@ -753,61 +738,19 @@
     <t>Solvency Ratio - Debt to Equity</t>
   </si>
   <si>
-    <t>Solvency Ratio - Financial Leverage</t>
-  </si>
-  <si>
-    <t>Solvency Ratio - Interest Coverage</t>
-  </si>
-  <si>
     <t>Solvency Ratio - Interest Ratio</t>
   </si>
   <si>
-    <t>Profitability Ratio - Gross Profit Margin</t>
-  </si>
-  <si>
-    <t>Profitability Ratio - Operating Profit Margin</t>
-  </si>
-  <si>
-    <t>Profitability Ratio - EBITDA Margin</t>
-  </si>
-  <si>
-    <t>Profitability Ratio - Net Profit Margin</t>
-  </si>
-  <si>
-    <t>Profitability Ratio - Return on Asset</t>
-  </si>
-  <si>
-    <t>Profitability Ratio - Return on Equity</t>
-  </si>
-  <si>
     <t>Miscellaneous Ratio - SG&amp;A Ratio</t>
   </si>
   <si>
     <t>Miscellaneous Ratio - R&amp;D Ratio</t>
   </si>
   <si>
-    <t>Miscellaneous Ratio - Depreciation Ratio</t>
-  </si>
-  <si>
-    <t>Miscellaneous Ratio - Cash Growth Rate</t>
-  </si>
-  <si>
     <t>Miscellaneous Ratio - Debt Growth Rate</t>
   </si>
   <si>
     <t>Miscellaneous Ratio - Outstanding Shares Growth Rate</t>
-  </si>
-  <si>
-    <t>Miscellaneous Ratio - Inventory Growth Rate</t>
-  </si>
-  <si>
-    <t>Miscellaneous Ratio - PP&amp;E Growth Rate</t>
-  </si>
-  <si>
-    <t>Miscellaneous Ratio - Goodwill Growth Rate</t>
-  </si>
-  <si>
-    <t>Miscellaneous Ratio - Total Asset Growth Rate</t>
   </si>
   <si>
     <t>Formula_Pseudo_Code</t>
@@ -1501,9 +1444,6 @@
     <t>inventory_growth_rate</t>
   </si>
   <si>
-    <t>pp&amp;e_growth_rate</t>
-  </si>
-  <si>
     <t>goodwill_growth_rate</t>
   </si>
   <si>
@@ -1553,6 +1493,117 @@
   </si>
   <si>
     <t>Key Ratio</t>
+  </si>
+  <si>
+    <t>Days of Inventory on Hand</t>
+  </si>
+  <si>
+    <t>Days of Sales Outstanding</t>
+  </si>
+  <si>
+    <t>Days of Payable</t>
+  </si>
+  <si>
+    <t>Cash conversion cycle</t>
+  </si>
+  <si>
+    <t>Working Capital Turnover</t>
+  </si>
+  <si>
+    <t>Total Asset Turnover</t>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <t>Cash Ratio</t>
+  </si>
+  <si>
+    <t>Debt to Asset</t>
+  </si>
+  <si>
+    <t>Debt to Capital</t>
+  </si>
+  <si>
+    <t>Debt to Equity</t>
+  </si>
+  <si>
+    <t>pp_e_growth_rate</t>
+  </si>
+  <si>
+    <t>Financial Leverage</t>
+  </si>
+  <si>
+    <t>Interest Coverage</t>
+  </si>
+  <si>
+    <t>Interest Ratio</t>
+  </si>
+  <si>
+    <t>Gross Profit Margin</t>
+  </si>
+  <si>
+    <t>Operating Profit Margin</t>
+  </si>
+  <si>
+    <t>EBITDA Margin</t>
+  </si>
+  <si>
+    <t>Net Profit Margin</t>
+  </si>
+  <si>
+    <t>Return on Asset</t>
+  </si>
+  <si>
+    <t>Return on Equity</t>
+  </si>
+  <si>
+    <t>SG&amp;A Ratio</t>
+  </si>
+  <si>
+    <t>R&amp;D Ratio</t>
+  </si>
+  <si>
+    <t>Depreciation Ratio</t>
+  </si>
+  <si>
+    <t>Cash Growth Rate</t>
+  </si>
+  <si>
+    <t>Debt Growth Rate</t>
+  </si>
+  <si>
+    <t>Outstanding Shares Growth Rate</t>
+  </si>
+  <si>
+    <t>Inventory Growth Rate</t>
+  </si>
+  <si>
+    <t>PP&amp;E Growth Rate</t>
+  </si>
+  <si>
+    <t>Goodwill Growth Rate</t>
+  </si>
+  <si>
+    <t>Total Asset Growth Rate</t>
+  </si>
+  <si>
+    <t>formula_type</t>
+  </si>
+  <si>
+    <t>formula_direction</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2147,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -2140,7 +2191,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -2560,10 +2611,10 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="G2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
@@ -2572,19 +2623,19 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="M2" t="s">
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="O2" t="s">
         <v>51</v>
@@ -2593,7 +2644,7 @@
         <v>110</v>
       </c>
       <c r="Q2" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2601,31 +2652,31 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="I3" t="s">
         <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="P3" t="s">
         <v>114</v>
@@ -2648,7 +2699,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
         <v>189</v>
@@ -2657,10 +2708,10 @@
         <v>153</v>
       </c>
       <c r="J4" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="N4" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="Q4" t="s">
         <v>52</v>
@@ -2668,7 +2719,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -2686,10 +2737,10 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="N5" t="s">
         <v>191</v>
@@ -2697,19 +2748,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="J6" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="N6" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2717,10 +2768,10 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="N7" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2728,28 +2779,28 @@
         <v>190</v>
       </c>
       <c r="N8" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="N9" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="N10" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="N11" t="s">
         <v>109</v>
@@ -2757,10 +2808,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="N12" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2768,7 +2819,7 @@
         <v>131</v>
       </c>
       <c r="N13" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2807,7 +2858,7 @@
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
@@ -2822,7 +2873,7 @@
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
@@ -2880,7 +2931,7 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
         <v>145</v>
@@ -2888,13 +2939,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="E3" t="s">
         <v>139</v>
@@ -2902,7 +2953,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -2911,18 +2962,18 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,7 +2981,7 @@
         <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -2946,15 +2997,15 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,12 +3015,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,10 +3101,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
         <v>158</v>
@@ -3062,31 +3113,31 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="F2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="G2" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="H2" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
         <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="K2" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="L2" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="M2" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3097,31 +3148,31 @@
         <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="G3" t="s">
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="I3" t="s">
         <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="K3" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="L3" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="M3" t="s">
         <v>150</v>
@@ -3132,7 +3183,7 @@
         <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -3141,28 +3192,28 @@
         <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="H4" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="I4" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="J4" t="s">
         <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L4" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="M4" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3182,24 +3233,24 @@
         <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="L5" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="M5" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -3208,7 +3259,7 @@
         <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -3217,13 +3268,13 @@
         <v>195</v>
       </c>
       <c r="K6" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="L6" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="M6" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3243,10 +3294,10 @@
         <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="L7" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="M7" t="s">
         <v>168</v>
@@ -3257,42 +3308,42 @@
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F8" t="s">
         <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="K8" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="L8" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="M8" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="I9" t="s">
         <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="L9" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="M9" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3300,13 +3351,13 @@
         <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="L10" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="M10" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3314,46 +3365,46 @@
         <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="L11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="M11" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="L12" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="M12" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="L13" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="M13" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="L14" t="s">
         <v>148</v>
       </c>
       <c r="M14" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3361,21 +3412,21 @@
         <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="M15" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="L16" t="s">
         <v>130</v>
       </c>
       <c r="M16" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.25">
@@ -3383,32 +3434,32 @@
         <v>129</v>
       </c>
       <c r="L17" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="M17" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="L18" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="M18" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="L19" t="s">
         <v>201</v>
       </c>
       <c r="M19" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="11:13" x14ac:dyDescent="0.25">
@@ -3419,7 +3470,7 @@
         <v>134</v>
       </c>
       <c r="M20" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="11:13" x14ac:dyDescent="0.25">
@@ -3427,18 +3478,18 @@
         <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="M21" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="M22" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="11:13" x14ac:dyDescent="0.25">
@@ -3453,17 +3504,17 @@
     </row>
     <row r="25" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3492,7 +3543,7 @@
         <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3530,7 +3581,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,11 +3657,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6085D-466B-40F3-BD6F-CEE4B7C0DEBD}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3620,9 +3671,11 @@
     <col min="3" max="3" width="98.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>202</v>
       </c>
@@ -3630,16 +3683,22 @@
         <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="E1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="F1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>204</v>
       </c>
@@ -3647,16 +3706,22 @@
         <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="E2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="F2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -3664,578 +3729,782 @@
         <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="E3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="F3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="E4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="F4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="E5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="F5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" t="s">
+        <v>502</v>
+      </c>
+      <c r="G6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9" t="s">
+        <v>503</v>
+      </c>
+      <c r="G9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F10" t="s">
+        <v>503</v>
+      </c>
+      <c r="G10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F11" t="s">
+        <v>503</v>
+      </c>
+      <c r="G11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" t="s">
+        <v>463</v>
+      </c>
+      <c r="F12" t="s">
+        <v>503</v>
+      </c>
+      <c r="G12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>434</v>
+      </c>
+      <c r="E14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" t="s">
+        <v>502</v>
+      </c>
+      <c r="G14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>478</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" t="s">
+        <v>436</v>
+      </c>
+      <c r="E16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E17" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" t="s">
+        <v>502</v>
+      </c>
+      <c r="G17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>481</v>
+      </c>
+      <c r="B18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" t="s">
+        <v>438</v>
+      </c>
+      <c r="E18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" t="s">
+        <v>502</v>
+      </c>
+      <c r="G18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" t="s">
+        <v>439</v>
+      </c>
+      <c r="E19" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" t="s">
+        <v>502</v>
+      </c>
+      <c r="G19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" t="s">
+        <v>440</v>
+      </c>
+      <c r="E20" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" t="s">
+        <v>502</v>
+      </c>
+      <c r="G20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" t="s">
+        <v>441</v>
+      </c>
+      <c r="E21" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" t="s">
+        <v>502</v>
+      </c>
+      <c r="G21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>442</v>
+      </c>
+      <c r="E22" t="s">
+        <v>466</v>
+      </c>
+      <c r="F22" t="s">
+        <v>502</v>
+      </c>
+      <c r="G22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>443</v>
+      </c>
+      <c r="E23" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" t="s">
+        <v>502</v>
+      </c>
+      <c r="G23" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>487</v>
+      </c>
+      <c r="B24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" t="s">
+        <v>502</v>
+      </c>
+      <c r="G24" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>488</v>
+      </c>
+      <c r="B25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" t="s">
         <v>445</v>
       </c>
-      <c r="C6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E25" t="s">
+        <v>466</v>
+      </c>
+      <c r="F25" t="s">
+        <v>502</v>
+      </c>
+      <c r="G25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>489</v>
+      </c>
+      <c r="B26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" t="s">
+        <v>446</v>
+      </c>
+      <c r="E26" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" t="s">
+        <v>502</v>
+      </c>
+      <c r="G26" t="str">
+        <f>$G$21</f>
+        <v>positive</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>490</v>
+      </c>
+      <c r="B27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" t="s">
+        <v>454</v>
+      </c>
+      <c r="E27" t="s">
+        <v>467</v>
+      </c>
+      <c r="F27" t="s">
+        <v>502</v>
+      </c>
+      <c r="G27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>491</v>
+      </c>
+      <c r="B28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" t="s">
+        <v>455</v>
+      </c>
+      <c r="E28" t="s">
+        <v>467</v>
+      </c>
+      <c r="F28" t="s">
+        <v>502</v>
+      </c>
+      <c r="G28" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>492</v>
+      </c>
+      <c r="B29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" t="s">
+        <v>467</v>
+      </c>
+      <c r="F29" t="s">
+        <v>502</v>
+      </c>
+      <c r="G29" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" t="s">
+        <v>448</v>
+      </c>
+      <c r="E30" t="s">
+        <v>467</v>
+      </c>
+      <c r="F30" t="s">
+        <v>502</v>
+      </c>
+      <c r="G30" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" t="s">
+        <v>449</v>
+      </c>
+      <c r="E31" t="s">
+        <v>467</v>
+      </c>
+      <c r="F31" t="s">
+        <v>502</v>
+      </c>
+      <c r="G31" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="s">
+        <v>450</v>
+      </c>
+      <c r="E32" t="s">
+        <v>467</v>
+      </c>
+      <c r="F32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G32" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" t="s">
+        <v>451</v>
+      </c>
+      <c r="E33" t="s">
+        <v>467</v>
+      </c>
+      <c r="F33" t="s">
+        <v>502</v>
+      </c>
+      <c r="G33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="s">
         <v>480</v>
       </c>
-      <c r="E6" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" t="s">
-        <v>247</v>
-      </c>
-      <c r="D7" t="s">
-        <v>446</v>
-      </c>
-      <c r="E7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C10" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" t="s">
-        <v>450</v>
-      </c>
-      <c r="E11" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" t="s">
-        <v>451</v>
-      </c>
-      <c r="E12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E34" t="s">
+        <v>467</v>
+      </c>
+      <c r="F34" t="s">
+        <v>502</v>
+      </c>
+      <c r="G34" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" t="s">
         <v>452</v>
       </c>
-      <c r="E13" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E35" t="s">
+        <v>467</v>
+      </c>
+      <c r="F35" t="s">
+        <v>502</v>
+      </c>
+      <c r="G35" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" t="s">
         <v>453</v>
       </c>
-      <c r="E14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E15" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C16" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" t="s">
-        <v>455</v>
-      </c>
-      <c r="E16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D17" t="s">
-        <v>456</v>
-      </c>
-      <c r="E17" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" t="s">
-        <v>266</v>
-      </c>
-      <c r="D18" t="s">
-        <v>457</v>
-      </c>
-      <c r="E18" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D19" t="s">
-        <v>458</v>
-      </c>
-      <c r="E19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D20" t="s">
-        <v>459</v>
-      </c>
-      <c r="E20" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" t="s">
-        <v>460</v>
-      </c>
-      <c r="E21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E22" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" t="s">
-        <v>462</v>
-      </c>
-      <c r="E23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" t="s">
-        <v>463</v>
-      </c>
-      <c r="E24" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" t="s">
-        <v>274</v>
-      </c>
-      <c r="D25" t="s">
-        <v>464</v>
-      </c>
-      <c r="E25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>230</v>
-      </c>
-      <c r="B26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D26" t="s">
-        <v>465</v>
-      </c>
-      <c r="E26" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" t="s">
-        <v>297</v>
-      </c>
-      <c r="C27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" t="s">
-        <v>474</v>
-      </c>
-      <c r="E27" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" t="s">
-        <v>298</v>
-      </c>
-      <c r="C28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D28" t="s">
-        <v>475</v>
-      </c>
-      <c r="E28" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" t="s">
-        <v>277</v>
-      </c>
-      <c r="D29" t="s">
-        <v>466</v>
-      </c>
-      <c r="E29" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" t="s">
-        <v>300</v>
-      </c>
-      <c r="C30" t="s">
-        <v>279</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E36" t="s">
         <v>467</v>
       </c>
-      <c r="E30" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" t="s">
-        <v>278</v>
-      </c>
-      <c r="D31" t="s">
-        <v>468</v>
-      </c>
-      <c r="E31" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B32" t="s">
-        <v>326</v>
-      </c>
-      <c r="C32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" t="s">
-        <v>469</v>
-      </c>
-      <c r="E32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" t="s">
-        <v>470</v>
-      </c>
-      <c r="E33" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E34" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" t="s">
-        <v>283</v>
-      </c>
-      <c r="D35" t="s">
-        <v>472</v>
-      </c>
-      <c r="E35" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B36" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" t="s">
-        <v>473</v>
-      </c>
-      <c r="E36" t="s">
-        <v>487</v>
+      <c r="F36" t="s">
+        <v>502</v>
+      </c>
+      <c r="G36" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E36" xr:uid="{F4D6085D-466B-40F3-BD6F-CEE4B7C0DEBD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4255,17 +4524,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -4280,37 +4549,37 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4334,7 +4603,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B1">
         <v>1000000</v>
@@ -4342,7 +4611,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4350,7 +4619,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <v>1000000</v>
@@ -4358,7 +4627,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B4">
         <v>1000</v>
@@ -4366,7 +4635,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4374,7 +4643,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4382,7 +4651,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4390,7 +4659,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -4417,7 +4686,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B1">
         <v>1000000</v>
@@ -4425,7 +4694,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B2">
         <v>1000000</v>
@@ -4433,7 +4702,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -4441,7 +4710,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B4">
         <v>1000</v>
@@ -4449,7 +4718,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -4457,7 +4726,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -4465,7 +4734,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B7">
         <v>1000</v>

--- a/assets/valuation_engine/Valuation_Engine_Mapping.xlsx
+++ b/assets/valuation_engine/Valuation_Engine_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\dashboard_finance_metrics\assets\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE762816-0BD1-4833-8DBA-7D14C8967F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12168D69-4848-4D77-9CA0-7347DD33329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" firstSheet="1" activeTab="5" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="507">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -898,12 +898,6 @@
     <t>(q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/(q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])</t>
   </si>
   <si>
-    <t>q_df.loc[index,'is.operating_income']/q_df.loc[index,'is.interest_expense']</t>
-  </si>
-  <si>
-    <t>q_df.loc[index,'is.interest_expense']/q_df.loc[index,'is.operating_income']</t>
-  </si>
-  <si>
     <t>(q_df.loc[index,'is.net_revenue']-q_df.loc[index,'is.cost_of_sales'])/q_df.loc[index,'is.net_revenue']</t>
   </si>
   <si>
@@ -1604,6 +1598,15 @@
   </si>
   <si>
     <t>negative</t>
+  </si>
+  <si>
+    <t>q_df.loc[index,'is.operating_income']/abs(q_df.loc[index,'is.interest_expense'])</t>
+  </si>
+  <si>
+    <t>abs(q_df.loc[index,'is.interest_expense'])/q_df.loc[index,'is.operating_income']</t>
+  </si>
+  <si>
+    <t>multiple</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2150,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -2191,7 +2194,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -2611,10 +2614,10 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
@@ -2623,19 +2626,19 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M2" t="s">
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O2" t="s">
         <v>51</v>
@@ -2644,7 +2647,7 @@
         <v>110</v>
       </c>
       <c r="Q2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2652,31 +2655,31 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I3" t="s">
         <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P3" t="s">
         <v>114</v>
@@ -2699,7 +2702,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G4" t="s">
         <v>189</v>
@@ -2708,10 +2711,10 @@
         <v>153</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="s">
         <v>52</v>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -2737,10 +2740,10 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N5" t="s">
         <v>191</v>
@@ -2748,19 +2751,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2768,10 +2771,10 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2779,28 +2782,28 @@
         <v>190</v>
       </c>
       <c r="N8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="N10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N11" t="s">
         <v>109</v>
@@ -2808,10 +2811,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2819,7 +2822,7 @@
         <v>131</v>
       </c>
       <c r="N13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2858,7 +2861,7 @@
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
@@ -2873,7 +2876,7 @@
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
@@ -2931,7 +2934,7 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E2" t="s">
         <v>145</v>
@@ -2939,13 +2942,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
         <v>139</v>
@@ -2953,7 +2956,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -2962,18 +2965,18 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D5" t="s">
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,7 +2984,7 @@
         <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -2997,15 +3000,15 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,12 +3018,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3101,10 +3104,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
         <v>158</v>
@@ -3113,31 +3116,31 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
         <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3148,31 +3151,31 @@
         <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G3" t="s">
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I3" t="s">
         <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M3" t="s">
         <v>150</v>
@@ -3183,7 +3186,7 @@
         <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -3192,28 +3195,28 @@
         <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J4" t="s">
         <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L4" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" t="s">
         <v>409</v>
-      </c>
-      <c r="M4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3233,24 +3236,24 @@
         <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -3259,7 +3262,7 @@
         <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -3268,13 +3271,13 @@
         <v>195</v>
       </c>
       <c r="K6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3294,10 +3297,10 @@
         <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M7" t="s">
         <v>168</v>
@@ -3308,42 +3311,42 @@
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
         <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I9" t="s">
         <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3351,13 +3354,13 @@
         <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3365,46 +3368,46 @@
         <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L14" t="s">
         <v>148</v>
       </c>
       <c r="M14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3412,21 +3415,21 @@
         <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L16" t="s">
         <v>130</v>
       </c>
       <c r="M16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.25">
@@ -3434,32 +3437,32 @@
         <v>129</v>
       </c>
       <c r="L17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L18" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L19" t="s">
         <v>201</v>
       </c>
       <c r="M19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="11:13" x14ac:dyDescent="0.25">
@@ -3470,7 +3473,7 @@
         <v>134</v>
       </c>
       <c r="M20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="11:13" x14ac:dyDescent="0.25">
@@ -3478,18 +3481,18 @@
         <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="11:13" x14ac:dyDescent="0.25">
@@ -3504,17 +3507,17 @@
     </row>
     <row r="25" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3546,7 @@
         <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3581,7 +3584,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3661,7 +3664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G37" sqref="G37"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,16 +3689,16 @@
         <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,16 +3712,16 @@
         <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
         <v>502</v>
-      </c>
-      <c r="G2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,16 +3735,16 @@
         <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G3" t="s">
         <v>502</v>
-      </c>
-      <c r="G3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3749,22 +3752,22 @@
         <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F4" t="s">
+        <v>500</v>
+      </c>
+      <c r="G4" t="s">
         <v>502</v>
-      </c>
-      <c r="G4" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3778,16 +3781,16 @@
         <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G5" t="s">
         <v>502</v>
-      </c>
-      <c r="G5" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,27 +3798,27 @@
         <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
         <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G6" t="s">
         <v>502</v>
-      </c>
-      <c r="G6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
         <v>229</v>
@@ -3824,21 +3827,21 @@
         <v>228</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G7" t="s">
         <v>503</v>
-      </c>
-      <c r="G7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s">
         <v>230</v>
@@ -3847,21 +3850,21 @@
         <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E8" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F8" t="s">
+        <v>501</v>
+      </c>
+      <c r="G8" t="s">
         <v>503</v>
-      </c>
-      <c r="G8" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
         <v>233</v>
@@ -3870,21 +3873,21 @@
         <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
         <v>235</v>
@@ -3893,21 +3896,21 @@
         <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F10" t="s">
+        <v>501</v>
+      </c>
+      <c r="G10" t="s">
         <v>503</v>
-      </c>
-      <c r="G10" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
         <v>236</v>
@@ -3916,21 +3919,21 @@
         <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
         <v>238</v>
@@ -3939,21 +3942,21 @@
         <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
         <v>240</v>
@@ -3962,21 +3965,21 @@
         <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F13" t="s">
+        <v>500</v>
+      </c>
+      <c r="G13" t="s">
         <v>502</v>
-      </c>
-      <c r="G13" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B14" t="s">
         <v>241</v>
@@ -3985,21 +3988,21 @@
         <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F14" t="s">
+        <v>500</v>
+      </c>
+      <c r="G14" t="s">
         <v>502</v>
-      </c>
-      <c r="G14" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B15" t="s">
         <v>266</v>
@@ -4008,21 +4011,21 @@
         <v>244</v>
       </c>
       <c r="D15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s">
         <v>267</v>
@@ -4031,21 +4034,21 @@
         <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
         <v>268</v>
@@ -4054,21 +4057,21 @@
         <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
         <v>269</v>
@@ -4077,197 +4080,197 @@
         <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G18" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B19" t="s">
-        <v>270</v>
+        <v>504</v>
       </c>
       <c r="C19" t="s">
         <v>249</v>
       </c>
       <c r="D19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F19" t="s">
+        <v>506</v>
+      </c>
+      <c r="G19" t="s">
         <v>502</v>
-      </c>
-      <c r="G19" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B20" t="s">
-        <v>271</v>
+        <v>505</v>
       </c>
       <c r="C20" t="s">
         <v>248</v>
       </c>
       <c r="D20" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C21" t="s">
         <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F21" t="s">
+        <v>500</v>
+      </c>
+      <c r="G21" t="s">
         <v>502</v>
-      </c>
-      <c r="G21" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C22" t="s">
         <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F22" t="s">
+        <v>500</v>
+      </c>
+      <c r="G22" t="s">
         <v>502</v>
-      </c>
-      <c r="G22" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
         <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F23" t="s">
+        <v>500</v>
+      </c>
+      <c r="G23" t="s">
         <v>502</v>
-      </c>
-      <c r="G23" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C24" t="s">
         <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F24" t="s">
+        <v>500</v>
+      </c>
+      <c r="G24" t="s">
         <v>502</v>
-      </c>
-      <c r="G24" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C25" t="s">
         <v>255</v>
       </c>
       <c r="D25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F25" t="s">
+        <v>500</v>
+      </c>
+      <c r="G25" t="s">
         <v>502</v>
-      </c>
-      <c r="G25" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
         <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F26" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G26" t="str">
         <f>$G$21</f>
@@ -4276,232 +4279,232 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
         <v>256</v>
       </c>
       <c r="D27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C28" t="s">
         <v>257</v>
       </c>
       <c r="D28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C29" t="s">
         <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G29" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
         <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F30" t="s">
+        <v>500</v>
+      </c>
+      <c r="G30" t="s">
         <v>502</v>
-      </c>
-      <c r="G30" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s">
         <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G31" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C32" t="s">
         <v>261</v>
       </c>
       <c r="D32" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G32" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C33" t="s">
         <v>262</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F33" t="s">
+        <v>500</v>
+      </c>
+      <c r="G33" t="s">
         <v>502</v>
-      </c>
-      <c r="G33" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C34" t="s">
         <v>263</v>
       </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F34" t="s">
+        <v>500</v>
+      </c>
+      <c r="G34" t="s">
         <v>502</v>
-      </c>
-      <c r="G34" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
         <v>264</v>
       </c>
       <c r="D35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F35" t="s">
+        <v>500</v>
+      </c>
+      <c r="G35" t="s">
         <v>502</v>
-      </c>
-      <c r="G35" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
         <v>265</v>
       </c>
       <c r="D36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E36" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F36" t="s">
+        <v>500</v>
+      </c>
+      <c r="G36" t="s">
         <v>502</v>
-      </c>
-      <c r="G36" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4524,7 +4527,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4603,7 +4606,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1">
         <v>1000000</v>
@@ -4611,7 +4614,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4619,7 +4622,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B3">
         <v>1000000</v>
@@ -4627,7 +4630,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4">
         <v>1000</v>
@@ -4635,7 +4638,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4643,7 +4646,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4651,7 +4654,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4659,7 +4662,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -4686,7 +4689,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B1">
         <v>1000000</v>
@@ -4694,7 +4697,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2">
         <v>1000000</v>
@@ -4702,7 +4705,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4">
         <v>1000</v>
@@ -4718,7 +4721,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -4726,7 +4729,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -4734,7 +4737,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B7">
         <v>1000</v>

--- a/assets/valuation_engine/Valuation_Engine_Mapping.xlsx
+++ b/assets/valuation_engine/Valuation_Engine_Mapping.xlsx
@@ -8,27 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\dashboard_finance_metrics\assets\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12168D69-4848-4D77-9CA0-7347DD33329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CCE688-09F2-4492-9C40-B4F2EADD27EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" firstSheet="1" activeTab="5" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="33480" yWindow="2970" windowWidth="23445" windowHeight="11385" tabRatio="722" activeTab="8" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Names" sheetId="5" r:id="rId1"/>
     <sheet name="BS fields" sheetId="6" r:id="rId2"/>
-    <sheet name="CFS fields" sheetId="8" r:id="rId3"/>
-    <sheet name="IS fields" sheetId="7" r:id="rId4"/>
-    <sheet name="Industries" sheetId="11" r:id="rId5"/>
-    <sheet name="Formula" sheetId="12" r:id="rId6"/>
-    <sheet name="Excel_Format" sheetId="13" r:id="rId7"/>
-    <sheet name="Currency_Dinomination" sheetId="14" r:id="rId8"/>
-    <sheet name="Share_Dinomination" sheetId="15" r:id="rId9"/>
-    <sheet name="Reference Link" sheetId="9" r:id="rId10"/>
-    <sheet name="Descending Helper" sheetId="10" r:id="rId11"/>
+    <sheet name="BS tags" sheetId="16" r:id="rId3"/>
+    <sheet name="CFS fields" sheetId="8" r:id="rId4"/>
+    <sheet name="CFS tags" sheetId="17" r:id="rId5"/>
+    <sheet name="IS fields" sheetId="7" r:id="rId6"/>
+    <sheet name="IS tags" sheetId="18" r:id="rId7"/>
+    <sheet name="Industries" sheetId="11" r:id="rId8"/>
+    <sheet name="Formula" sheetId="12" r:id="rId9"/>
+    <sheet name="Excel_Format" sheetId="13" r:id="rId10"/>
+    <sheet name="Currency_Dinomination" sheetId="14" r:id="rId11"/>
+    <sheet name="Share_Dinomination" sheetId="15" r:id="rId12"/>
+    <sheet name="Reference Link" sheetId="9" r:id="rId13"/>
+    <sheet name="Descending Helper" sheetId="10" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Descending Helper'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Formula!$A$1:$E$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Industries!$A$1:$B$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Descending Helper'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Formula!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Industries!$A$1:$B$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="561">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -705,10 +708,6 @@
   </si>
   <si>
     <t>Return On Invested Capital Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(q_df.loc[index,'is.operating_income']*(1-q_df.loc[index,'is.income_tax_provision']/(q_df.loc[index,'is.income_tax_provision']+q_df.loc[index,'is.net_income'])))/(q_df.loc[index,'bs.long_term_debt_current']+q_df.loc[index,'bs.long_term_debt_net_current']-q_df.loc[index,'bs.cash_n_equivalent']+q_df.loc[index,'bs.total_shareholder_equity'])
-</t>
   </si>
   <si>
     <t>EPS Growth Rate</t>
@@ -808,12 +807,6 @@
     <t>Revenue / Average Total Asset</t>
   </si>
   <si>
-    <t>(q_df.loc[index,'bs.cash_n_equivalent']+q_df.loc[index,'bs.st_investment']+q_df.loc[index,'bs.account_receivable'])/q_df.loc[index,'bs.total_current_liabilities']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.cash_n_equivalent']+q_df.loc[index,'bs.st_investment'])/q_df.loc[index,'bs.total_current_liabilities']</t>
-  </si>
-  <si>
     <t>(cash+st_investment+AR)/Current_Liability</t>
   </si>
   <si>
@@ -886,15 +879,6 @@
     <t>(Asset1-Asset0)/Asset0</t>
   </si>
   <si>
-    <t>(q_df.loc[index,'bs.long_term_debt_current']+q_df.loc[index,'bs.long_term_debt_net_current'])/q_df.loc[index,'bs.total_assets']</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.long_term_debt_current']+q_df.loc[index,'bs.long_term_debt_net_current'])/(q_df.loc[index,'bs.long_term_debt_current']+q_df.loc[index,'bs.long_term_debt_net_current']+q_df.loc[index,'bs.total_shareholder_equity'])</t>
-  </si>
-  <si>
-    <t>(q_df.loc[index,'bs.long_term_debt_current']+q_df.loc[index,'bs.long_term_debt_net_current'])/q_df.loc[index,'bs.total_shareholder_equity']</t>
-  </si>
-  <si>
     <t>(q_df.loc[index,'bs.total_assets']+q_df.loc[index-1,'bs.total_assets'])/(q_df.loc[index,'bs.total_shareholder_equity']+q_df.loc[index-1,'bs.total_shareholder_equity'])</t>
   </si>
   <si>
@@ -928,9 +912,6 @@
     <t>(q_df.loc[index,'bs.cash_n_equivalent']-q_df.loc[index-1,'bs.cash_n_equivalent'])/q_df.loc[index-1,'bs.cash_n_equivalent']</t>
   </si>
   <si>
-    <t>(q_df.loc[index,'bs.long_term_debt_current']+q_df.loc[index,'bs.long_term_debt_net_current']-q_df.loc[index-1,'bs.long_term_debt_current']-q_df.loc[index-1,'bs.long_term_debt_net_current'])/(q_df.loc[index-1,'bs.long_term_debt_current']+q_df.loc[index-1,'bs.long_term_debt_net_current'])</t>
-  </si>
-  <si>
     <t>(q_df.loc[index,'bs.inventories']-q_df.loc[index-1,'bs.inventories'])/q_df.loc[index-1,'bs.inventories']</t>
   </si>
   <si>
@@ -1360,9 +1341,6 @@
     <t>(q_df.loc[index,'is.eps_basic']-q_df.loc[index-1,'is.eps_basic'])/abs(q_df.loc[index-1,'is.eps_basic'])</t>
   </si>
   <si>
-    <t>((q_df.loc[index,'cfs.cfo']+(q_df.loc[index,'is.interest_expense']*(1-q_df.loc[index,'is.income_tax_provision']/(q_df.loc[index,'is.income_tax_provision']+q_df.loc[index,'is.net_income'])))-abs(q_df.loc[index,'cfs.capital_expenditure']))-(q_df.loc[index-1,'cfs.cfo']+(q_df.loc[index-1,'is.interest_expense']*(1-q_df.loc[index-1,'is.income_tax_provision']/(q_df.loc[index-1,'is.income_tax_provision']+q_df.loc[index-1,'is.net_income'])))-abs(q_df.loc[index-1,'cfs.capital_expenditure'])))/abs((q_df.loc[index-1,'cfs.cfo']+(q_df.loc[index-1,'is.interest_expense']*(1-q_df.loc[index-1,'is.income_tax_provision']/(q_df.loc[index-1,'is.income_tax_provision']+q_df.loc[index-1,'is.net_income'])))-abs(q_df.loc[index-1,'cfs.capital_expenditure'])))</t>
-  </si>
-  <si>
     <t>days_inventory_on_hand</t>
   </si>
   <si>
@@ -1607,6 +1585,193 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>AccountsReceivableNetCurrent</t>
+  </si>
+  <si>
+    <t>InventoryNet</t>
+  </si>
+  <si>
+    <t>AssetsCurrent</t>
+  </si>
+  <si>
+    <t>CashAndCashEquivalentsAtCarryingValue</t>
+  </si>
+  <si>
+    <t>ShortTermInvestments</t>
+  </si>
+  <si>
+    <t>PropertyPlantAndEquipmentNet</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>StockholdersEquity</t>
+  </si>
+  <si>
+    <t>LongTermDebtNoncurrent</t>
+  </si>
+  <si>
+    <t>AccountsPayableCurrent</t>
+  </si>
+  <si>
+    <t>LiabilitiesCurrent</t>
+  </si>
+  <si>
+    <t>TreasuryStockValue</t>
+  </si>
+  <si>
+    <t>RetainedEarningsAccumulatedDeficit</t>
+  </si>
+  <si>
+    <t>bs.total_liabilities_and_equity</t>
+  </si>
+  <si>
+    <t>LiabilitiesAndStockholdersEquity</t>
+  </si>
+  <si>
+    <t>OtherDepreciationAndAmortization</t>
+  </si>
+  <si>
+    <t>NetCashProvidedByUsedInOperatingActivities</t>
+  </si>
+  <si>
+    <t>CapitalExpendituresIncurredButNotYetPaid</t>
+  </si>
+  <si>
+    <t>RevenueFromContractWithCustomerExcludingAssessedTax</t>
+  </si>
+  <si>
+    <t>CostOfGoodsAndServiceExcludingDepreciationDepletionAndAmortization</t>
+  </si>
+  <si>
+    <t>ResearchAndDevelopmentExpense</t>
+  </si>
+  <si>
+    <t>SellingGeneralAndAdministrativeExpense</t>
+  </si>
+  <si>
+    <t>OperatingIncomeLoss</t>
+  </si>
+  <si>
+    <t>InterestExpense</t>
+  </si>
+  <si>
+    <t>IncomeTaxExpenseBenefit</t>
+  </si>
+  <si>
+    <t>NetIncomeLoss</t>
+  </si>
+  <si>
+    <t>EarningsPerShareBasic</t>
+  </si>
+  <si>
+    <t>EarningsPerShareDiluted</t>
+  </si>
+  <si>
+    <t>WeightedAverageNumberOfDilutedSharesOutstanding</t>
+  </si>
+  <si>
+    <t>DebtInstrumentCarryingAmount</t>
+  </si>
+  <si>
+    <t>SalesRevenueNet</t>
+  </si>
+  <si>
+    <t>CostOfGoodsSold</t>
+  </si>
+  <si>
+    <t>DepreciationDepletionAndAmortization</t>
+  </si>
+  <si>
+    <t>CostOfGoodsAndServicesSold</t>
+  </si>
+  <si>
+    <t>AvailableForSaleSecuritiesCurrent</t>
+  </si>
+  <si>
+    <t>AvailableForSaleSecuritiesDebtSecuritiesCurrent</t>
+  </si>
+  <si>
+    <t>RestrictedCashAndCashEquivalents</t>
+  </si>
+  <si>
+    <t>RestrictedCashAndCashEquivalentsAtCarryingValue</t>
+  </si>
+  <si>
+    <t>RestrictedCashAndInvestmentsNoncurrent</t>
+  </si>
+  <si>
+    <t>MarketableSecurities</t>
+  </si>
+  <si>
+    <t>MarketableSecuritiesCurrent</t>
+  </si>
+  <si>
+    <t>AccountsAndNotesReceivableNet</t>
+  </si>
+  <si>
+    <t>AccountsNotesAndLoansReceivableNetCurrent</t>
+  </si>
+  <si>
+    <t>AccountsReceivableNet</t>
+  </si>
+  <si>
+    <t>AccountsReceivableGrossCurrent</t>
+  </si>
+  <si>
+    <t>bs.total_debt</t>
+  </si>
+  <si>
+    <t>DepreciationAmortizationAndAccretionNet</t>
+  </si>
+  <si>
+    <t>DepreciationAndAmortization</t>
+  </si>
+  <si>
+    <t>LongTermDebt</t>
+  </si>
+  <si>
+    <t>LongTermDebtCurrent</t>
+  </si>
+  <si>
+    <t>LongTermDebtAndCapitalLeaseObligations</t>
+  </si>
+  <si>
+    <t>DebtAndCapitalLeaseObligations</t>
+  </si>
+  <si>
+    <t>LongTermDebtAndCapitalLeaseObligationsCurrent</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.total_debt'])/q_df.loc[index,'bs.total_assets']</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.total_debt'])/(q_df.loc[index,'bs.total_debt']+q_df.loc[index,'bs.total_shareholder_equity'])</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.total_debt'])/q_df.loc[index,'bs.total_shareholder_equity']</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.total_debt']-q_df.loc[index-1,'bs.total_debt'])/(q_df.loc[index-1,'bs.total_debt'])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(q_df.loc[index,'is.operating_income']*(1-q_df.loc[index,'is.income_tax_provision']/(q_df.loc[index,'is.income_tax_provision']+q_df.loc[index,'is.net_income'])))/(q_df.loc[index,'bs.total_debt']-q_df.loc[index,'bs.cash_n_equivalent']+q_df.loc[index,'bs.total_shareholder_equity'])
+</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index, 'bs.cash_n_equivalent'] + (0 if pd.isna(q_df.loc[index, 'bs.st_investment']) else q_df.loc[index, 'bs.st_investment'])) / q_df.loc[index, 'bs.total_current_liabilities']</t>
+  </si>
+  <si>
+    <t>(q_df.loc[index,'bs.cash_n_equivalent']+ (0 if pd.isna(q_df.loc[index, 'bs.st_investment']) else q_df.loc[index, 'bs.st_investment'])+q_df.loc[index,'bs.account_receivable'])/q_df.loc[index,'bs.total_current_liabilities']</t>
+  </si>
+  <si>
+    <t>((q_df.loc[index,'cfs.cfo']+(q_df.loc[index,'is.interest_expense']*(1-q_df.loc[index,'is.income_tax_provision']/(q_df.loc[index,'is.income_tax_provision']+q_df.loc[index,'is.net_income'])))-(0 if pd.isna(q_df.loc[index,'cfs.capital_expenditure']) else abs(q_df.loc[index,'cfs.capital_expenditure'])))-(q_df.loc[index-1,'cfs.cfo']+(q_df.loc[index-1,'is.interest_expense']*(1-q_df.loc[index-1,'is.income_tax_provision']/(q_df.loc[index-1,'is.income_tax_provision']+q_df.loc[index-1,'is.net_income'])))-(0 if pd.isna(q_df.loc[index-1,'cfs.capital_expenditure']) else abs(q_df.loc[index-1,'cfs.capital_expenditure']))))/abs((q_df.loc[index-1,'cfs.cfo']+(q_df.loc[index-1,'is.interest_expense']*(1-q_df.loc[index-1,'is.income_tax_provision']/(q_df.loc[index-1,'is.income_tax_provision']+q_df.loc[index-1,'is.net_income'])))-(0 if pd.isna(q_df.loc[index-1,'cfs.capital_expenditure']) else abs(q_df.loc[index-1,'cfs.capital_expenditure']))))</t>
+  </si>
+  <si>
+    <t>CommercialPaper</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1781,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1664,6 +1829,19 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1692,12 +1870,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2021,7 +2217,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2346,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
         <v>99</v>
@@ -2194,7 +2390,7 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -2209,6 +2405,242 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28390FB5-7004-48B9-A399-4CEC9B4A11E9}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B9949-EAEA-46E5-8E64-EFBF4635E1DF}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BDF4A2-643C-4774-AA72-B071BD9732DC}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E94A725-BABD-4DD2-9402-294697F8CA6F}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -2228,7 +2660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE7179E-B15B-453E-AF17-CA6393FF201F}">
   <dimension ref="A1:B36"/>
   <sheetViews>
@@ -2519,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9D11B9-4850-49DC-A489-AEDD6CF830F0}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,10 +3046,10 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
@@ -2626,19 +3058,19 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M2" t="s">
         <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="O2" t="s">
         <v>51</v>
@@ -2647,7 +3079,7 @@
         <v>110</v>
       </c>
       <c r="Q2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2655,31 +3087,31 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I3" t="s">
         <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L3" t="s">
         <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P3" t="s">
         <v>114</v>
@@ -2702,7 +3134,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G4" t="s">
         <v>189</v>
@@ -2711,10 +3143,10 @@
         <v>153</v>
       </c>
       <c r="J4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N4" t="s">
         <v>333</v>
-      </c>
-      <c r="N4" t="s">
-        <v>340</v>
       </c>
       <c r="Q4" t="s">
         <v>52</v>
@@ -2722,7 +3154,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
@@ -2740,10 +3172,10 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="N5" t="s">
         <v>191</v>
@@ -2751,19 +3183,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="J6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="N6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2771,10 +3203,10 @@
         <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="N7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2782,28 +3214,28 @@
         <v>190</v>
       </c>
       <c r="N8" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="N9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="N10" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="N11" t="s">
         <v>109</v>
@@ -2811,10 +3243,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="N12" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2822,7 +3254,7 @@
         <v>131</v>
       </c>
       <c r="N13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2861,7 +3293,7 @@
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.25">
@@ -2876,7 +3308,7 @@
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.25">
@@ -2890,12 +3322,211 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393012C1-9C0A-46E6-9F40-B9B35EF62F0D}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="44.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46" style="11" customWidth="1"/>
+    <col min="11" max="11" width="45.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD264BF-CB5D-44B5-9127-229C21BD93C0}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2934,7 +3565,7 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
         <v>145</v>
@@ -2942,13 +3573,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E3" t="s">
         <v>139</v>
@@ -2956,7 +3587,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -2965,18 +3596,18 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D5" t="s">
         <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2984,7 +3615,7 @@
         <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -3000,15 +3631,15 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3018,12 +3649,12 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,12 +3667,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3718C9-AA07-4701-A05B-CEE02B8EA8E3}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7626DA-05D4-42C2-8677-A20758095D82}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,10 +3795,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
         <v>158</v>
@@ -3116,31 +3807,31 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I2" t="s">
         <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3151,31 +3842,31 @@
         <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
         <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
         <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I3" t="s">
         <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M3" t="s">
         <v>150</v>
@@ -3186,7 +3877,7 @@
         <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -3195,28 +3886,28 @@
         <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="J4" t="s">
         <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L4" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -3236,24 +3927,24 @@
         <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J5" t="s">
         <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="M5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -3262,7 +3953,7 @@
         <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I6" t="s">
         <v>127</v>
@@ -3271,13 +3962,13 @@
         <v>195</v>
       </c>
       <c r="K6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M6" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -3297,10 +3988,10 @@
         <v>122</v>
       </c>
       <c r="K7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="L7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M7" t="s">
         <v>168</v>
@@ -3311,42 +4002,42 @@
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
         <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K8" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L8" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="M8" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="I9" t="s">
         <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="M9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -3354,13 +4045,13 @@
         <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L10" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3368,46 +4059,46 @@
         <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="L11" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M11" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
+        <v>344</v>
+      </c>
+      <c r="L13" t="s">
+        <v>394</v>
+      </c>
+      <c r="M13" t="s">
         <v>351</v>
-      </c>
-      <c r="L13" t="s">
-        <v>401</v>
-      </c>
-      <c r="M13" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K14" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L14" t="s">
         <v>148</v>
       </c>
       <c r="M14" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3415,21 +4106,21 @@
         <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M15" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L16" t="s">
         <v>130</v>
       </c>
       <c r="M16" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.25">
@@ -3437,32 +4128,32 @@
         <v>129</v>
       </c>
       <c r="L17" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M17" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L18" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M18" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K19" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L19" t="s">
         <v>201</v>
       </c>
       <c r="M19" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="11:13" x14ac:dyDescent="0.25">
@@ -3473,7 +4164,7 @@
         <v>134</v>
       </c>
       <c r="M20" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="11:13" x14ac:dyDescent="0.25">
@@ -3481,18 +4172,18 @@
         <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M22" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="11:13" x14ac:dyDescent="0.25">
@@ -3507,17 +4198,17 @@
     </row>
     <row r="25" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M26" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="11:13" x14ac:dyDescent="0.25">
       <c r="M27" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +4218,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340D1864-AD97-4776-80AD-6D493E9ABA75}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="61.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF8DD67-EF32-46CE-967F-FCAE0BBB8B6E}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -3546,7 +4353,7 @@
         <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3584,7 +4391,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3658,18 +4465,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6085D-466B-40F3-BD6F-CEE4B7C0DEBD}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
@@ -3686,19 +4496,19 @@
         <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3709,568 +4519,568 @@
         <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>
-      <c r="B3" t="s">
-        <v>207</v>
+      <c r="B3" s="8" t="s">
+        <v>556</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G4" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G5" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E6" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G6" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
         <v>230</v>
       </c>
-      <c r="C8" t="s">
-        <v>231</v>
-      </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E8" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F8" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F9" t="s">
+        <v>493</v>
+      </c>
+      <c r="G9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
         <v>233</v>
       </c>
-      <c r="C9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" t="s">
-        <v>427</v>
-      </c>
-      <c r="E9" t="s">
-        <v>461</v>
-      </c>
-      <c r="F9" t="s">
-        <v>501</v>
-      </c>
-      <c r="G9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>470</v>
-      </c>
-      <c r="B10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" t="s">
-        <v>234</v>
-      </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E10" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
         <v>236</v>
       </c>
-      <c r="C11" t="s">
-        <v>237</v>
-      </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E11" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F11" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G11" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
         <v>238</v>
       </c>
-      <c r="C12" t="s">
-        <v>239</v>
-      </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E12" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F12" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G12" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>558</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E13" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G13" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>557</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E14" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="F14" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G14" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" t="s">
-        <v>244</v>
+        <v>552</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E15" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F15" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G15" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>476</v>
-      </c>
-      <c r="B16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" t="s">
-        <v>246</v>
+        <v>468</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F16" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G16" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" t="s">
-        <v>245</v>
+        <v>554</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="D17" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F17" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G17" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E18" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F18" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G18" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B19" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F19" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G19" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B20" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D20" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E20" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F20" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G20" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D21" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E21" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F21" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G21" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B22" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E22" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F22" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G22" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D23" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E23" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F23" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G23" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E24" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F24" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G24" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G25" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D26" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E26" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F26" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G26" t="str">
         <f>$G$21</f>
@@ -4279,468 +5089,232 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D27" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E27" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F27" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G27" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E28" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F28" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G28" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E29" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F29" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G29" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D30" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E30" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F30" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G30" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B31" t="s">
+        <v>555</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E31" t="s">
+        <v>457</v>
+      </c>
+      <c r="F31" t="s">
         <v>492</v>
       </c>
-      <c r="B31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C31" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" t="s">
-        <v>447</v>
-      </c>
-      <c r="E31" t="s">
-        <v>465</v>
-      </c>
-      <c r="F31" t="s">
-        <v>500</v>
-      </c>
       <c r="G31" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D32" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E32" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F32" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G32" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E33" t="s">
+        <v>457</v>
+      </c>
+      <c r="F33" t="s">
+        <v>492</v>
+      </c>
+      <c r="G33" t="s">
         <v>494</v>
-      </c>
-      <c r="B33" t="s">
-        <v>281</v>
-      </c>
-      <c r="C33" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" t="s">
-        <v>449</v>
-      </c>
-      <c r="E33" t="s">
-        <v>465</v>
-      </c>
-      <c r="F33" t="s">
-        <v>500</v>
-      </c>
-      <c r="G33" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B34" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E34" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F34" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G34" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B35" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D35" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E35" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F35" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G35" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B36" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C36" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D36" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E36" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F36" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G36" t="s">
-        <v>502</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28390FB5-7004-48B9-A399-4CEC9B4A11E9}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B9949-EAEA-46E5-8E64-EFBF4635E1DF}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BDF4A2-643C-4774-AA72-B071BD9732DC}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7">
-        <v>1000</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
